--- a/cypress/fixtures/exelPayload.xlsx
+++ b/cypress/fixtures/exelPayload.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanis\Documents\dipanshu_sw\Cypress_New\cypressJuneB2024\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A831B7-C774-4C6B-8AC4-8B4B77B0629A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E873047-3A72-4C72-9C49-B843A6E3055A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C49830E-EF4B-4454-BAD6-19770623B04C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
